--- a/Documentation/Pruebas Sprint 4.xlsx
+++ b/Documentation/Pruebas Sprint 4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JdRod\Documents\Notifik\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Pruebas" sheetId="1" r:id="rId1"/>
+    <sheet name="Capturas de pantalla" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>ITEM</t>
   </si>
@@ -123,13 +124,26 @@
   </si>
   <si>
     <t>Navegación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>No carga la lista de las notificaciones hasta que llegue una notificación nueva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +189,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -466,23 +498,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -496,62 +573,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
       <color rgb="FFFF6565"/>
-      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -563,6 +604,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6357937" y="214313"/>
+          <a:ext cx="5624513" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>364312</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>154762</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="364312" y="261938"/>
+          <a:ext cx="5624513" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>538125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>328575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>166650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12206250" y="204750"/>
+          <a:ext cx="5624513" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>735749</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>526200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18237937" y="238125"/>
+          <a:ext cx="5624513" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>404738</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>199950</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>180899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="404738" y="11267999"/>
+          <a:ext cx="5629275" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,468 +1094,637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="72.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="72.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="25" t="s">
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="25" t="s">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="25" t="s">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="26" t="s">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="37" t="s">
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="22">
-        <f>SUM(C3:C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22">
-        <f>SUM(E3:E7)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22">
-        <f>SUM(G3:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22">
-        <f>SUM(I3:I7)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="C8" s="44">
+        <f>SUM(C3:C7)/5</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="44">
+        <f>SUM(E3:E7)/5</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="41">
+        <f>SUM(G3:G7)/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="41">
+        <f>SUM(I3:I7)/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="43"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="39"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30" t="s">
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30" t="s">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30" t="s">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="31" t="s">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="37" t="s">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="22">
-        <f>SUM(C9:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22">
-        <f>SUM(E9:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22">
-        <f>SUM(G9:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22">
-        <f>SUM(I9:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="C14" s="44">
+        <f>SUM(C9:C13)/5</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="44">
+        <f>SUM(E9:E13)/5</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="44">
+        <f>SUM(G9:G13)/5</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="44">
+        <f>SUM(I9:I13)/5</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30" t="s">
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="19"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="19"/>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="19"/>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="22">
-        <f>SUM(C15:C19)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22">
-        <f>SUM(E15:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22">
-        <f>SUM(G15:G19)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22">
-        <f>SUM(I15:I19)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="23"/>
+      <c r="C20" s="38">
+        <f>SUM(C15:C19)/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="38">
+        <f>SUM(E15:E19)/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="38">
+        <f>SUM(G15:G19)/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="38">
+        <f>SUM(I15:I19)/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="39"/>
+      <c r="C21" s="18">
+        <v>0</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="19"/>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="19"/>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="19"/>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="37" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="22">
-        <f>SUM(C21:C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22">
-        <f>SUM(E21:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22">
-        <f>SUM(G21:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22">
-        <f>SUM(I21:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="23"/>
+      <c r="C26" s="44">
+        <f>SUM(C21:C25)/5</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="45"/>
+      <c r="E26" s="38">
+        <f>SUM(E21:E25)/5</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="38">
+        <f>SUM(G21:G25)/5</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="38">
+        <f>SUM(I21:I25)/5</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
@@ -1297,11 +1732,23 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentation/Pruebas Sprint 4.xlsx
+++ b/Documentation/Pruebas Sprint 4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JdRod\Documents\Notifik\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JdRod\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>ITEM</t>
   </si>
@@ -131,11 +131,32 @@
   <si>
     <t>No carga la lista de las notificaciones hasta que llegue una notificación nueva</t>
   </si>
+  <si>
+    <t>Cumplidas</t>
+  </si>
+  <si>
+    <t>No cumplidas</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Comparacion cumplimiento sprints</t>
+  </si>
+  <si>
+    <t>Comparacion faltante sprint</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -497,12 +518,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -525,6 +555,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -561,27 +612,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +643,4188 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grafico de cumplimiento</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pruebas!$C$31:$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Entrega I</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entrega II</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entrega III</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entrega IV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pruebas!$D$31:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1012724752"/>
+        <c:axId val="-1012735088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1012724752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1012735088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1012735088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1012724752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cumplimiento/Faltante</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pruebas!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumplidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pruebas!$C$31:$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Entrega I</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entrega II</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entrega III</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entrega IV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pruebas!$D$31:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pruebas!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No cumplidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pruebas!$C$31:$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Entrega I</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entrega II</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entrega III</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entrega IV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pruebas!$E$31:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-636308368"/>
+        <c:axId val="-636318704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-636308368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-636318704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-636318704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-636308368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparación</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> cumplimiento sprint anterior</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pruebas!$D$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pruebas!$C$53:$C$56</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Entrega I</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entrega II</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entrega III</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entrega IV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pruebas!$D$53:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pruebas!$E$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pruebas!$C$53:$C$56</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Entrega I</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entrega II</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entrega III</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entrega IV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pruebas!$E$53:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0%">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0%">
+                  <c:v>0.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-636324688"/>
+        <c:axId val="-636327952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-636324688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-636327952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-636327952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-636324688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparación faltante sprint anterior </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pruebas!$H$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pruebas!$G$53:$G$56</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Entrega I</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entrega II</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entrega III</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entrega IV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pruebas!$H$53:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pruebas!$I$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pruebas!$G$53:$G$56</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Entrega I</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entrega II</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entrega III</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entrega IV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pruebas!$I$53:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-769837856"/>
+        <c:axId val="-769840576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-769837856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-769840576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-769840576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-769837856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4392634</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>868384</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>143864</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1610591</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>39830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1956955</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>116030</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4675909</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>143739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1160318</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>29439</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1065065</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4277590</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>185302</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1094,10 +5312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,32 +5330,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="37"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +5382,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1190,7 +5408,7 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
@@ -1212,7 +5430,7 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1234,7 +5452,7 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
@@ -1256,7 +5474,7 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
@@ -1281,33 +5499,33 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="28">
         <f>SUM(C3:C7)/5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="44">
+      <c r="D8" s="29"/>
+      <c r="E8" s="28">
         <f>SUM(E3:E7)/5</f>
         <v>0</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="41">
+      <c r="F8" s="29"/>
+      <c r="G8" s="25">
         <f>SUM(G3:G7)/5</f>
         <v>0.6</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="41">
+      <c r="H8" s="26"/>
+      <c r="I8" s="25">
         <f>SUM(I3:I7)/5</f>
         <v>0.6</v>
       </c>
-      <c r="J8" s="43"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -1331,7 +5549,7 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
@@ -1353,7 +5571,7 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
@@ -1375,7 +5593,7 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="15" t="s">
         <v>19</v>
       </c>
@@ -1397,7 +5615,7 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="16" t="s">
         <v>20</v>
       </c>
@@ -1419,33 +5637,33 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="28">
         <f>SUM(C9:C13)/5</f>
         <v>0</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="44">
+      <c r="D14" s="29"/>
+      <c r="E14" s="28">
         <f>SUM(E9:E13)/5</f>
         <v>0</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="44">
+      <c r="F14" s="29"/>
+      <c r="G14" s="28">
         <f>SUM(G9:G13)/5</f>
         <v>0</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="44">
+      <c r="H14" s="29"/>
+      <c r="I14" s="28">
         <f>SUM(I9:I13)/5</f>
         <v>0</v>
       </c>
-      <c r="J14" s="46"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -1469,7 +5687,7 @@
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="15" t="s">
         <v>22</v>
       </c>
@@ -1491,7 +5709,7 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="15" t="s">
         <v>23</v>
       </c>
@@ -1513,7 +5731,7 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
@@ -1535,7 +5753,7 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="16" t="s">
         <v>25</v>
       </c>
@@ -1557,33 +5775,33 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="22">
         <f>SUM(C15:C19)/5</f>
         <v>0.8</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="38">
+      <c r="D20" s="23"/>
+      <c r="E20" s="22">
         <f>SUM(E15:E19)/5</f>
         <v>0.8</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="38">
+      <c r="F20" s="23"/>
+      <c r="G20" s="22">
         <f>SUM(G15:G19)/5</f>
         <v>0.8</v>
       </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="38">
+      <c r="H20" s="23"/>
+      <c r="I20" s="22">
         <f>SUM(I15:I19)/5</f>
         <v>0.8</v>
       </c>
-      <c r="J20" s="40"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="19" t="s">
@@ -1607,7 +5825,7 @@
       <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="13" t="s">
         <v>28</v>
       </c>
@@ -1629,7 +5847,7 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="13" t="s">
         <v>29</v>
       </c>
@@ -1651,7 +5869,7 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="13" t="s">
         <v>30</v>
       </c>
@@ -1673,7 +5891,7 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
@@ -1695,46 +5913,245 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="28">
         <f>SUM(C21:C25)/5</f>
         <v>0</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="38">
+      <c r="D26" s="29"/>
+      <c r="E26" s="22">
         <f>SUM(E21:E25)/5</f>
         <v>1</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="38">
+      <c r="F26" s="23"/>
+      <c r="G26" s="22">
         <f>SUM(G21:G25)/5</f>
         <v>1</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="38">
+      <c r="H26" s="23"/>
+      <c r="I26" s="22">
         <f>SUM(I21:I25)/5</f>
         <v>1</v>
       </c>
-      <c r="J26" s="40"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="49"/>
+      <c r="C27" s="48">
+        <f>(C8+C14+C20+C26)/4</f>
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="48">
+        <f>(E8+E14+E20+E26)/4</f>
+        <v>0.45</v>
+      </c>
+      <c r="F27" s="49"/>
+      <c r="G27" s="48">
+        <f>(G8+G14+G20+G26)/4</f>
+        <v>0.6</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="48">
+        <f>(I8+I14+I20+I26)/4</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="50">
+        <f>1-D31</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="E32" s="50">
+        <f t="shared" ref="E32:E34" si="0">1-D32</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="E33" s="50">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="E34" s="50">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="G51" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="E53" s="48">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="47">
+        <f>1-D53</f>
+        <v>0.8</v>
+      </c>
+      <c r="I53" s="48">
+        <f>1-E53</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="E54" s="47">
+        <f>6/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="G54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="47">
+        <f t="shared" ref="H54:H56" si="1">1-D54</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I54" s="48">
+        <f t="shared" ref="I54:I56" si="2">1-E54</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="E55" s="47">
+        <f>6/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="47">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="I55" s="48">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="E56" s="48">
+        <f>7/8</f>
+        <v>0.875</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="47">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="I56" s="48">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
